--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,16 +34,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,10 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -433,94 +443,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="4">
-        <v>43775</v>
+        <v>43618</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>4280</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D8" si="0">SUM(C2,-C4)</f>
-        <v>22</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <f>D2*E2</f>
-        <v>98.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4218</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1075</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>7.2900000000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>43683</v>
       </c>
@@ -531,18 +534,25 @@
         <v>4258</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C4,-C2)</f>
         <v>40</v>
       </c>
       <c r="E4" s="8">
         <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
         <v>179.60000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <f>SUM(F4,F5)</f>
+        <v>203.90000000000003</v>
+      </c>
+      <c r="H4" s="6">
+        <v>203.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -551,268 +561,99 @@
         <v>1072</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
         <v>10</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43618</v>
+        <v>43775</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>4218</v>
+        <v>4280</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="E6" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>365.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>98.78</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM(F6,F7)</f>
+        <v>106.07000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>106.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>14.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43379</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4138</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f>D7*E7</f>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(G4:G7)</f>
+        <v>309.97000000000003</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM(H4:H7)</f>
+        <v>309.97000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1056</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:D15" si="2">SUM(C9,-C11)</f>
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>49.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43344</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4048</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F15" si="3">D10*E10</f>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1035</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="3"/>
-        <v>58.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43295</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3940</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="3"/>
-        <v>310.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="3"/>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43261</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3871</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
-        <v>368.94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="3"/>
-        <v>41.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43219</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3785</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>981</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -822,12 +663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,12 +677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -443,17 +445,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -467,7 +469,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -493,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43618</v>
       </c>
@@ -509,7 +511,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -523,7 +525,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43683</v>
       </c>
@@ -552,7 +554,7 @@
         <v>203.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -574,7 +576,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43775</v>
       </c>
@@ -603,7 +605,7 @@
         <v>106.07</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -625,35 +627,86 @@
       <c r="G7" s="3"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4303</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>103.27000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>108.13000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>108.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1077</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
-        <f>SUM(G4:G7)</f>
-        <v>309.97000000000003</v>
-      </c>
-      <c r="H8" s="6">
-        <f>SUM(H4:H7)</f>
-        <v>309.97000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6" t="s">
+      <c r="G10" s="6">
+        <f>SUM(G4:G9)</f>
+        <v>418.1</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H4:H9)</f>
+        <v>418.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -663,12 +716,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -677,12 +730,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -679,34 +679,85 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
+      <c r="A10" s="4">
+        <v>44040</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4330</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
+        <v>27</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>127.17</v>
       </c>
       <c r="G10" s="6">
-        <f>SUM(G4:G9)</f>
-        <v>418.1</v>
+        <f>SUM(F10,F11)</f>
+        <v>127.17</v>
       </c>
       <c r="H10" s="6">
-        <f>SUM(H4:H9)</f>
-        <v>418.1</v>
+        <v>127.17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1077</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(G4:G11)</f>
+        <v>545.27</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUM(H4:H11)</f>
+        <v>545.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>98.78</v>
       </c>
       <c r="G6" s="6">
@@ -621,7 +621,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>7.2900000000000009</v>
       </c>
       <c r="G7" s="3"/>
@@ -638,14 +638,14 @@
         <v>4303</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <f t="shared" ref="D8:D9" si="3">SUM(C8,-C6)</f>
         <v>23</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>103.27000000000001</v>
       </c>
       <c r="G8" s="6">
@@ -665,14 +665,14 @@
         <v>1077</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>4.8600000000000003</v>
       </c>
       <c r="G9" s="3"/>
@@ -689,14 +689,14 @@
         <v>4330</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
         <v>27</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>127.17</v>
       </c>
       <c r="G10" s="6">
@@ -716,48 +716,99 @@
         <v>1077</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4379</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>49</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>230.79</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(F12,F13)</f>
+        <v>274.14</v>
+      </c>
+      <c r="H12" s="6">
+        <v>274.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1094</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="6"/>
+        <v>43.349999999999994</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G14" s="6">
         <f>SUM(G4:G11)</f>
         <v>545.27</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H14" s="6">
         <f>SUM(H4:H11)</f>
         <v>545.27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,34 +781,85 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>44146</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4410</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>31</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>146.01</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(F14,F15)</f>
+        <v>151.10999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>151.11000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="8"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G16" s="6">
         <f>SUM(G4:G11)</f>
         <v>545.27</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H16" s="6">
         <f>SUM(H4:H11)</f>
         <v>545.27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -832,34 +832,85 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>44343</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4421</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
+        <v>11</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>51.81</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(F16,F17)</f>
+        <v>51.81</v>
+      </c>
+      <c r="H16" s="6">
+        <v>51.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G18" s="6">
         <f>SUM(G4:G11)</f>
         <v>545.27</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H18" s="6">
         <f>SUM(H4:H11)</f>
         <v>545.27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -883,34 +883,85 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4471</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="11">SUM(C18,-C16)</f>
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>235.5</v>
+      </c>
+      <c r="G18" s="6">
+        <f>SUM(F18,F19)</f>
+        <v>337.5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1136</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="12"/>
+        <v>102</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G20" s="6">
         <f>SUM(G4:G11)</f>
         <v>545.27</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H20" s="6">
         <f>SUM(H4:H11)</f>
         <v>545.27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/44ee.xlsx
+++ b/sputnik/personal/ee/44ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,34 +934,136 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>44419</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4493</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="13">SUM(C20,-C18)</f>
+        <v>22</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
+        <v>109.12</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(F20,F21)</f>
+        <v>152</v>
+      </c>
+      <c r="H20" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1152</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="14"/>
+        <v>42.88</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44445</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="15">SUM(C22,-C20)</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="16">D22*E22</f>
+        <v>34.72</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(F22,F23)</f>
+        <v>56.16</v>
+      </c>
+      <c r="H22" s="6">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="16"/>
+        <v>21.44</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G24" s="6">
         <f>SUM(G4:G11)</f>
         <v>545.27</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H24" s="6">
         <f>SUM(H4:H11)</f>
         <v>545.27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
